--- a/Data/Output/OutPut.xlsx
+++ b/Data/Output/OutPut.xlsx
@@ -40,10 +40,10 @@
     <x:t>COUNCIL OF THE CITY OF SYDNEY</x:t>
   </x:si>
   <x:si>
-    <x:t>Data\Output\MapScreenshots\320 Pitt Street, Sydney, 2000_210325.014941.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210325.014942_Success</x:t>
+    <x:t>Data\Output\MapScreenshots\320 Pitt Street, Sydney, 2000_210329.035507.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210329.035508_Success</x:t>
   </x:si>
   <x:si>
     <x:t>123 Pitt Street, Sydney, NSW</x:t>
@@ -52,10 +52,10 @@
     <x:t>10/-/DP1027838</x:t>
   </x:si>
   <x:si>
-    <x:t>Data\Output\MapScreenshots\123 Pitt Street, Sydney, NSW_210325.014953.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210325.014953_Success</x:t>
+    <x:t>Data\Output\MapScreenshots\123 Pitt Street, Sydney, NSW_210329.035519.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210329.035519_Success</x:t>
   </x:si>
   <x:si>
     <x:t>555 Anzac Parade Kingsford 2032</x:t>
@@ -67,10 +67,10 @@
     <x:t>RANDWICK CITY COUNCIL</x:t>
   </x:si>
   <x:si>
-    <x:t>Data\Output\MapScreenshots\555 Anzac Parade Kingsford 2032_210325.015004.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210325.015004_Success</x:t>
+    <x:t>Data\Output\MapScreenshots\555 Anzac Parade Kingsford 2032_210329.035531.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210329.035531_Success</x:t>
   </x:si>
 </x:sst>
 </file>
